--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KoreaScoring\Documents\UiPath\GenerateYearlyReportPerformer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KoreaScoring\Documents\UiPath\SpecialDK1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42BF587-4461-4D63-858D-17B42D4A7FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EB996-5B88-43D6-AF75-744FBF62D2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11844" yWindow="1944" windowWidth="11172" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -148,11 +156,203 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Data\Temp</t>
+    <t>UiDemoTrans</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UiDemoTrans</t>
+    <t>templatePath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>resultPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Temp\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Data\template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Data\result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Invoice_yy.MM.dd_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당자이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Invoice_Tracker_yy.MM.dd_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당자이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>invoiceTrackerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>invoiceTemplateName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>invoiceTemplateTrackerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>invoiceName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>copySheetName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoice-Number</t>
+  </si>
+  <si>
+    <t>trackerSheetName1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Invoices_Total</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>trackerSheetName2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Invoice_Tracker_20.06.11_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이석원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Invoice_20.06.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이석원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -160,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,6 +371,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -190,6 +391,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -542,7 +750,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -592,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -630,18 +838,81 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
